--- a/RSME Tabel.xlsx
+++ b/RSME Tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlphilip/Dropbox/10. Semester/Social Data Science/three_drengz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EFA11BE3-7E1B-7F4A-A037-4C244B5E7DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D3ACE6-843F-994A-B8FA-0FDCA966FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{8827CCEA-BC36-C24E-9614-AE0EE54D6BC4}"/>
   </bookViews>
@@ -34,10 +34,47 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>OLS</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>Ridge</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>Lambda</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -53,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -61,12 +98,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,12 +430,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ABA97D-F884-4546-B845-246208D11172}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.80012993179469005</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.73430466643615</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.72617099179858002</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>6.0618989934975699E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>182.33480008684299</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/RSME Tabel.xlsx
+++ b/RSME Tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlphilip/Dropbox/10. Semester/Social Data Science/three_drengz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D3ACE6-843F-994A-B8FA-0FDCA966FE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBF9AFD-CFCB-C341-A339-D416D9B74614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{8827CCEA-BC36-C24E-9614-AE0EE54D6BC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -56,6 +56,113 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <r>
+      <t>'Int'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC5C8C6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9AA83A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Tkl%'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC5C8C6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9AA83A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Price_m'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC5C8C6"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF9AA83A"/>
+        <rFont val="Menlo"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Comp'</t>
+    </r>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Ast</t>
+  </si>
+  <si>
+    <t>G-PK</t>
+  </si>
+  <si>
+    <t>CrdY</t>
+  </si>
+  <si>
+    <t>CrdR</t>
+  </si>
+  <si>
+    <t>Cmp%</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Tkl%</t>
+  </si>
+  <si>
+    <t>OneThird</t>
+  </si>
+  <si>
+    <t>Pos_FW</t>
+  </si>
+  <si>
+    <t>Pos_MF</t>
+  </si>
+  <si>
+    <t>Comp_LaLiga</t>
+  </si>
+  <si>
+    <t>Comp_Ligue1</t>
+  </si>
+  <si>
+    <t>Comp_PL</t>
+  </si>
+  <si>
+    <t>Comp_SerieA</t>
   </si>
 </sst>
 </file>
@@ -63,9 +170,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -80,6 +187,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC5C8C6"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9AA83A"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -111,11 +230,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,15 +563,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ABA97D-F884-4546-B845-246208D11172}">
-  <dimension ref="B2:E4"/>
+  <dimension ref="B2:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -466,7 +602,7 @@
         <v>0.72617099179858002</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -479,6 +615,184 @@
       <c r="E4" s="3">
         <v>182.33480008684299</v>
       </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="4"/>
+      <c r="H15" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="6"/>
+      <c r="C16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.4039000000000001</v>
+      </c>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="8">
+        <v>-0.14249999999999999</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="8">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="8">
+        <v>0.1012</v>
+      </c>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8">
+        <v>-3.3300000000000003E-2</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8">
+        <v>-4.1399999999999999E-2</v>
+      </c>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="8">
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="8">
+        <v>-2.3999999999999998E-3</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-1.6999999999999999E-3</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="8">
+        <v>1.3899999999999999E-2</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="8">
+        <v>-0.1694</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="8">
+        <v>4.19E-2</v>
+      </c>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="8">
+        <v>-7.8899999999999998E-2</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="8">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="8">
+        <v>4.8300000000000003E-2</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RSME Tabel.xlsx
+++ b/RSME Tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlphilip/Dropbox/10. Semester/Social Data Science/three_drengz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBF9AFD-CFCB-C341-A339-D416D9B74614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73950B4B-7233-014A-B6F4-681819B78F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{8827CCEA-BC36-C24E-9614-AE0EE54D6BC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Model</t>
   </si>
@@ -58,65 +58,6 @@
     <t>-</t>
   </si>
   <si>
-    <r>
-      <t>'Int'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC5C8C6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9AA83A"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Tkl%'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC5C8C6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9AA83A"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Price_m'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC5C8C6"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF9AA83A"/>
-        <rFont val="Menlo"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Comp'</t>
-    </r>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
@@ -163,6 +104,21 @@
   </si>
   <si>
     <t>Comp_SerieA</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>Comp_La Liga</t>
+  </si>
+  <si>
+    <t>Comp_Ligue 1</t>
+  </si>
+  <si>
+    <t>Comp_Premier League</t>
+  </si>
+  <si>
+    <t>Comp_Serie A</t>
   </si>
 </sst>
 </file>
@@ -172,7 +128,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -187,12 +143,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC5C8C6"/>
-      <name val="Menlo"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -235,20 +185,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,15 +511,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ABA97D-F884-4546-B845-246208D11172}">
-  <dimension ref="B2:H32"/>
+  <dimension ref="B2:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B16" sqref="B16:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
@@ -618,9 +567,7 @@
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="4"/>
-      <c r="H15" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="6"/>
@@ -634,165 +581,432 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.4076770000000001</v>
+      </c>
+      <c r="D17" s="8">
+        <v>3.3294860000000002</v>
+      </c>
+      <c r="E17" s="8">
+        <v>3.4075549999999999</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" t="s">
+        <v>2</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="8">
-        <v>3.4039000000000001</v>
-      </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
+      <c r="C18" s="8">
+        <v>-0.134685</v>
+      </c>
+      <c r="D18" s="8">
+        <v>-0.13294</v>
+      </c>
+      <c r="E18" s="8">
+        <v>-0.134683</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3.4076770000000001</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3.3294860000000002</v>
+      </c>
+      <c r="J18" s="3">
+        <v>3.4075549999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="8">
-        <v>-0.14249999999999999</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+      <c r="C19" s="8">
+        <v>6.5679000000000001E-2</v>
+      </c>
+      <c r="D19" s="8">
+        <v>6.6023999999999999E-2</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6.5680000000000002E-2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-0.134685</v>
+      </c>
+      <c r="I19" s="3">
+        <v>-0.13294</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-0.134683</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8">
-        <v>7.0999999999999994E-2</v>
-      </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
+      <c r="C20" s="8">
+        <v>0.102876</v>
+      </c>
+      <c r="D20" s="8">
+        <v>0.102495</v>
+      </c>
+      <c r="E20" s="8">
+        <v>0.10287499999999999</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" s="3">
+        <v>6.5679000000000001E-2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>6.6023999999999999E-2</v>
+      </c>
+      <c r="J20" s="3">
+        <v>6.5680000000000002E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="8">
-        <v>0.1012</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
+      <c r="C21" s="8">
+        <v>-4.2105999999999998E-2</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-4.1759999999999999E-2</v>
+      </c>
+      <c r="E21" s="8">
+        <v>-4.2105999999999998E-2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0.102876</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.102495</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0.10287499999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="8">
-        <v>-3.3300000000000003E-2</v>
-      </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
+      <c r="C22" s="8">
+        <v>5.9590999999999998E-2</v>
+      </c>
+      <c r="D22" s="8">
+        <v>5.3960000000000001E-2</v>
+      </c>
+      <c r="E22" s="8">
+        <v>5.9589999999999997E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-4.2105999999999998E-2</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-4.1759999999999999E-2</v>
+      </c>
+      <c r="J22" s="3">
+        <v>-4.2105999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="8">
-        <v>-4.1399999999999999E-2</v>
-      </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
+      <c r="C23" s="8">
+        <v>1.7517000000000001E-2</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1.7958999999999999E-2</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1.7517000000000001E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="3">
+        <v>5.9590999999999998E-2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>5.3960000000000001E-2</v>
+      </c>
+      <c r="J23" s="3">
+        <v>5.9589999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="8">
+        <v>8.1019999999999998E-3</v>
+      </c>
+      <c r="D24" s="8">
+        <v>8.0450000000000001E-3</v>
+      </c>
+      <c r="E24" s="8">
+        <v>8.1019999999999998E-3</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.7517000000000001E-2</v>
+      </c>
+      <c r="I24" s="3">
+        <v>1.7958999999999999E-2</v>
+      </c>
+      <c r="J24" s="3">
+        <v>1.7517000000000001E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="8">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
+      <c r="C25" s="8">
+        <v>6.9399999999999996E-4</v>
+      </c>
+      <c r="D25" s="8">
+        <v>7.4899999999999999E-4</v>
+      </c>
+      <c r="E25" s="8">
+        <v>6.9399999999999996E-4</v>
+      </c>
+      <c r="G25" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8.1019999999999998E-3</v>
+      </c>
+      <c r="I25" s="3">
+        <v>8.0450000000000001E-3</v>
+      </c>
+      <c r="J25" s="3">
+        <v>8.1019999999999998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="8">
+        <v>-4.7800000000000004E-3</v>
+      </c>
+      <c r="D26" s="8">
+        <v>-4.653E-3</v>
+      </c>
+      <c r="E26" s="8">
+        <v>-4.7800000000000004E-3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="3">
+        <v>6.9399999999999996E-4</v>
+      </c>
+      <c r="I26" s="3">
+        <v>7.4899999999999999E-4</v>
+      </c>
+      <c r="J26" s="3">
+        <v>6.9399999999999996E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="8">
-        <v>7.7000000000000002E-3</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+      <c r="C27" s="8">
+        <v>4.9600000000000002E-4</v>
+      </c>
+      <c r="D27" s="8">
+        <v>6.3769999999999999E-3</v>
+      </c>
+      <c r="E27" s="8">
+        <v>5.1199999999999998E-4</v>
+      </c>
+      <c r="G27" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="8">
-        <v>-2.3999999999999998E-3</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="8">
-        <v>-1.6999999999999999E-3</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="H27" s="3">
+        <v>-4.7800000000000004E-3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-4.653E-3</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-4.7800000000000004E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="8">
-        <v>1.3899999999999999E-2</v>
-      </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+      <c r="C28" s="8">
+        <v>-0.29766300000000001</v>
+      </c>
+      <c r="D28" s="8">
+        <v>-0.291408</v>
+      </c>
+      <c r="E28" s="8">
+        <v>-0.297657</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="3">
+        <v>4.9600000000000002E-4</v>
+      </c>
+      <c r="I28" s="3">
+        <v>6.3769999999999999E-3</v>
+      </c>
+      <c r="J28" s="3">
+        <v>5.1199999999999998E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="8">
-        <v>-0.1694</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
+      <c r="C29" s="8">
+        <v>0.179927</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0.170851</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.179927</v>
+      </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-0.29766300000000001</v>
+      </c>
+      <c r="I29" s="3">
+        <v>-0.291408</v>
+      </c>
+      <c r="J29" s="3">
+        <v>-0.297657</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="8">
-        <v>4.19E-2</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
+      <c r="C30" s="8">
+        <v>-9.5829999999999999E-2</v>
+      </c>
+      <c r="D30" s="8">
+        <v>-9.4144000000000005E-2</v>
+      </c>
+      <c r="E30" s="8">
+        <v>-9.5827999999999997E-2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0.179927</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0.170851</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0.179927</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="8">
-        <v>-7.8899999999999998E-2</v>
-      </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="C31" s="8">
+        <v>0.72368699999999997</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0.71480100000000002</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.72368699999999997</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="3">
+        <v>-9.5829999999999999E-2</v>
+      </c>
+      <c r="I31" s="3">
+        <v>-9.4144000000000005E-2</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-9.5827999999999997E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="8">
-        <v>0.68920000000000003</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>23</v>
-      </c>
       <c r="C32" s="8">
-        <v>4.8300000000000003E-2</v>
-      </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+        <v>0.104805</v>
+      </c>
+      <c r="D32" s="8">
+        <v>9.7853999999999997E-2</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.104806</v>
+      </c>
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0.72368699999999997</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0.71480100000000002</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0.72368699999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0.104805</v>
+      </c>
+      <c r="I33" s="3">
+        <v>9.7853999999999997E-2</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0.104806</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/RSME Tabel.xlsx
+++ b/RSME Tabel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/carlphilip/Dropbox/10. Semester/Social Data Science/three_drengz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73950B4B-7233-014A-B6F4-681819B78F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61B8CEC-C7E4-354E-8A52-867A27A96BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16060" xr2:uid="{8827CCEA-BC36-C24E-9614-AE0EE54D6BC4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -104,21 +104,6 @@
   </si>
   <si>
     <t>Comp_SerieA</t>
-  </si>
-  <si>
-    <t>const</t>
-  </si>
-  <si>
-    <t>Comp_La Liga</t>
-  </si>
-  <si>
-    <t>Comp_Ligue 1</t>
-  </si>
-  <si>
-    <t>Comp_Premier League</t>
-  </si>
-  <si>
-    <t>Comp_Serie A</t>
   </si>
 </sst>
 </file>
@@ -513,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17ABA97D-F884-4546-B845-246208D11172}">
   <dimension ref="B2:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,448 +550,312 @@
         <v>182.33480008684299</v>
       </c>
     </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.4076770000000001</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3.3294860000000002</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3.4075549999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-0.134685</v>
+      </c>
+      <c r="D8" s="8">
+        <v>-0.13294</v>
+      </c>
+      <c r="E8" s="8">
+        <v>-0.134683</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6.5679000000000001E-2</v>
+      </c>
+      <c r="D9" s="8">
+        <v>6.6023999999999999E-2</v>
+      </c>
+      <c r="E9" s="8">
+        <v>6.5680000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="8">
+        <v>0.102876</v>
+      </c>
+      <c r="D10" s="8">
+        <v>0.102495</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.10287499999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="8">
+        <v>-4.2105999999999998E-2</v>
+      </c>
+      <c r="D11" s="8">
+        <v>-4.1759999999999999E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>-4.2105999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5.9590999999999998E-2</v>
+      </c>
+      <c r="D12" s="8">
+        <v>5.3960000000000001E-2</v>
+      </c>
+      <c r="E12" s="8">
+        <v>5.9589999999999997E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.7517000000000001E-2</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.7958999999999999E-2</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1.7517000000000001E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8.1019999999999998E-3</v>
+      </c>
+      <c r="D14" s="8">
+        <v>8.0450000000000001E-3</v>
+      </c>
+      <c r="E14" s="8">
+        <v>8.1019999999999998E-3</v>
+      </c>
+    </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="4"/>
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="8">
+        <v>6.9399999999999996E-4</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7.4899999999999999E-4</v>
+      </c>
+      <c r="E15" s="8">
+        <v>6.9399999999999996E-4</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>3</v>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="8">
+        <v>-4.7800000000000004E-3</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-4.653E-3</v>
+      </c>
+      <c r="E16" s="8">
+        <v>-4.7800000000000004E-3</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>7</v>
+      <c r="B17" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="C17" s="8">
-        <v>3.4076770000000001</v>
+        <v>4.9600000000000002E-4</v>
       </c>
       <c r="D17" s="8">
-        <v>3.3294860000000002</v>
+        <v>6.3769999999999999E-3</v>
       </c>
       <c r="E17" s="8">
-        <v>3.4075549999999999</v>
-      </c>
-      <c r="H17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
+        <v>5.1199999999999998E-4</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C18" s="8">
-        <v>-0.134685</v>
+        <v>-0.29766300000000001</v>
       </c>
       <c r="D18" s="8">
-        <v>-0.13294</v>
+        <v>-0.291408</v>
       </c>
       <c r="E18" s="8">
-        <v>-0.134683</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" s="3">
-        <v>3.4076770000000001</v>
-      </c>
-      <c r="I18" s="3">
-        <v>3.3294860000000002</v>
-      </c>
-      <c r="J18" s="3">
-        <v>3.4075549999999999</v>
-      </c>
+        <v>-0.297657</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C19" s="8">
-        <v>6.5679000000000001E-2</v>
+        <v>0.179927</v>
       </c>
       <c r="D19" s="8">
-        <v>6.6023999999999999E-2</v>
+        <v>0.170851</v>
       </c>
       <c r="E19" s="8">
-        <v>6.5680000000000002E-2</v>
-      </c>
-      <c r="G19" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3">
-        <v>-0.134685</v>
-      </c>
-      <c r="I19" s="3">
-        <v>-0.13294</v>
-      </c>
-      <c r="J19" s="3">
-        <v>-0.134683</v>
-      </c>
+        <v>0.179927</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C20" s="8">
-        <v>0.102876</v>
+        <v>-9.5829999999999999E-2</v>
       </c>
       <c r="D20" s="8">
-        <v>0.102495</v>
+        <v>-9.4144000000000005E-2</v>
       </c>
       <c r="E20" s="8">
-        <v>0.10287499999999999</v>
-      </c>
-      <c r="G20" t="s">
-        <v>9</v>
-      </c>
-      <c r="H20" s="3">
-        <v>6.5679000000000001E-2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>6.6023999999999999E-2</v>
-      </c>
-      <c r="J20" s="3">
-        <v>6.5680000000000002E-2</v>
-      </c>
+        <v>-9.5827999999999997E-2</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C21" s="8">
-        <v>-4.2105999999999998E-2</v>
+        <v>0.72368699999999997</v>
       </c>
       <c r="D21" s="8">
-        <v>-4.1759999999999999E-2</v>
+        <v>0.71480100000000002</v>
       </c>
       <c r="E21" s="8">
-        <v>-4.2105999999999998E-2</v>
-      </c>
-      <c r="G21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="3">
-        <v>0.102876</v>
-      </c>
-      <c r="I21" s="3">
-        <v>0.102495</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0.10287499999999999</v>
-      </c>
+        <v>0.72368699999999997</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C22" s="8">
-        <v>5.9590999999999998E-2</v>
+        <v>0.104805</v>
       </c>
       <c r="D22" s="8">
-        <v>5.3960000000000001E-2</v>
+        <v>9.7853999999999997E-2</v>
       </c>
       <c r="E22" s="8">
-        <v>5.9589999999999997E-2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="3">
-        <v>-4.2105999999999998E-2</v>
-      </c>
-      <c r="I22" s="3">
-        <v>-4.1759999999999999E-2</v>
-      </c>
-      <c r="J22" s="3">
-        <v>-4.2105999999999998E-2</v>
-      </c>
+        <v>0.104806</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="8">
-        <v>1.7517000000000001E-2</v>
-      </c>
-      <c r="D23" s="8">
-        <v>1.7958999999999999E-2</v>
-      </c>
-      <c r="E23" s="8">
-        <v>1.7517000000000001E-2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="3">
-        <v>5.9590999999999998E-2</v>
-      </c>
-      <c r="I23" s="3">
-        <v>5.3960000000000001E-2</v>
-      </c>
-      <c r="J23" s="3">
-        <v>5.9589999999999997E-2</v>
-      </c>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="8">
-        <v>8.1019999999999998E-3</v>
-      </c>
-      <c r="D24" s="8">
-        <v>8.0450000000000001E-3</v>
-      </c>
-      <c r="E24" s="8">
-        <v>8.1019999999999998E-3</v>
-      </c>
-      <c r="G24" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1.7517000000000001E-2</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1.7958999999999999E-2</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1.7517000000000001E-2</v>
-      </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B25" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="8">
-        <v>6.9399999999999996E-4</v>
-      </c>
-      <c r="D25" s="8">
-        <v>7.4899999999999999E-4</v>
-      </c>
-      <c r="E25" s="8">
-        <v>6.9399999999999996E-4</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="3">
-        <v>8.1019999999999998E-3</v>
-      </c>
-      <c r="I25" s="3">
-        <v>8.0450000000000001E-3</v>
-      </c>
-      <c r="J25" s="3">
-        <v>8.1019999999999998E-3</v>
-      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="8">
-        <v>-4.7800000000000004E-3</v>
-      </c>
-      <c r="D26" s="8">
-        <v>-4.653E-3</v>
-      </c>
-      <c r="E26" s="8">
-        <v>-4.7800000000000004E-3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26" s="3">
-        <v>6.9399999999999996E-4</v>
-      </c>
-      <c r="I26" s="3">
-        <v>7.4899999999999999E-4</v>
-      </c>
-      <c r="J26" s="3">
-        <v>6.9399999999999996E-4</v>
-      </c>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="8">
-        <v>4.9600000000000002E-4</v>
-      </c>
-      <c r="D27" s="8">
-        <v>6.3769999999999999E-3</v>
-      </c>
-      <c r="E27" s="8">
-        <v>5.1199999999999998E-4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>15</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-4.7800000000000004E-3</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-4.653E-3</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-4.7800000000000004E-3</v>
-      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="8">
-        <v>-0.29766300000000001</v>
-      </c>
-      <c r="D28" s="8">
-        <v>-0.291408</v>
-      </c>
-      <c r="E28" s="8">
-        <v>-0.297657</v>
-      </c>
-      <c r="G28" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="3">
-        <v>4.9600000000000002E-4</v>
-      </c>
-      <c r="I28" s="3">
-        <v>6.3769999999999999E-3</v>
-      </c>
-      <c r="J28" s="3">
-        <v>5.1199999999999998E-4</v>
-      </c>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0.179927</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0.170851</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0.179927</v>
-      </c>
-      <c r="G29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="3">
-        <v>-0.29766300000000001</v>
-      </c>
-      <c r="I29" s="3">
-        <v>-0.291408</v>
-      </c>
-      <c r="J29" s="3">
-        <v>-0.297657</v>
-      </c>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="8">
-        <v>-9.5829999999999999E-2</v>
-      </c>
-      <c r="D30" s="8">
-        <v>-9.4144000000000005E-2</v>
-      </c>
-      <c r="E30" s="8">
-        <v>-9.5827999999999997E-2</v>
-      </c>
-      <c r="G30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="3">
-        <v>0.179927</v>
-      </c>
-      <c r="I30" s="3">
-        <v>0.170851</v>
-      </c>
-      <c r="J30" s="3">
-        <v>0.179927</v>
-      </c>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0.72368699999999997</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0.71480100000000002</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0.72368699999999997</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="3">
-        <v>-9.5829999999999999E-2</v>
-      </c>
-      <c r="I31" s="3">
-        <v>-9.4144000000000005E-2</v>
-      </c>
-      <c r="J31" s="3">
-        <v>-9.5827999999999997E-2</v>
-      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0.104805</v>
-      </c>
-      <c r="D32" s="8">
-        <v>9.7853999999999997E-2</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0.104806</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0.72368699999999997</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0.71480100000000002</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0.72368699999999997</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.2">
-      <c r="G33" t="s">
-        <v>27</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.104805</v>
-      </c>
-      <c r="I33" s="3">
-        <v>9.7853999999999997E-2</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0.104806</v>
-      </c>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
